--- a/src/main/resources/ExportTemplate/OfferPriceExportTemplate.xlsx
+++ b/src/main/resources/ExportTemplate/OfferPriceExportTemplate.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\workspace\ael\src\main\resources\ExportTemplate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19155" windowHeight="8505"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19155" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>&lt;jx:forEach items="${offerItems}" var="offerItem"&gt;</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>${offerItem.typeOfService}</t>
   </si>
@@ -77,13 +79,86 @@
   </si>
   <si>
     <t>${offerDate}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÔNG TY TNHH THƯƠNG MẠI &amp; DỊCH VỤ AEL </t>
+  </si>
+  <si>
+    <t>Địa chỉ : 308/18 Đường Bình Lợi, P.13, Q. Bình Thạnh, Tp. HCM</t>
+  </si>
+  <si>
+    <t>Tel : 848 - 62581123   Fax :  848 - 62581129</t>
+  </si>
+  <si>
+    <t>Email: info@aelvn.com; Website :  www.aelvn.com</t>
+  </si>
+  <si>
+    <t>BẢNG BÁO GIÁ</t>
+  </si>
+  <si>
+    <t>Đề  nghị Quý công ty vui  lòng thanh toán  số tiền trên cho công ty  chúng tôi theo thông tin chuyển khoản ngân hàng như sau :</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tên chủ  tài khoản: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CÔNG TY TNHH TM &amp; DV AEL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số tài khoản  : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>103714189</t>
+    </r>
+  </si>
+  <si>
+    <t>tại Ngân hàng thương mại Á Châu (ACB) , Chi Nhánh Bình Hòa 2, Q. Bình Thạnh, Tp. HCM</t>
+  </si>
+  <si>
+    <t>AEL TRADING &amp; SERVICE CO.,LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCG TRADING VIET NAM CO., LTD</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${offerItems}" var="offerItem" varStatus="status"&gt;</t>
+  </si>
+  <si>
+    <t>${status.index}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +180,71 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -156,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -164,6 +304,27 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -175,8 +336,60 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1228727</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="cid:image001.jpg@01CC79D6.0BBC3DF0"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="66675" y="47625"/>
+          <a:ext cx="1771652" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -222,7 +435,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,7 +470,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,107 +679,305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F7"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="C15" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+  <mergeCells count="2">
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="A10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/ExportTemplate/OfferPriceExportTemplate.xlsx
+++ b/src/main/resources/ExportTemplate/OfferPriceExportTemplate.xlsx
@@ -3,23 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\workspace\ael\src\main\resources\ExportTemplate\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19155" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="2595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>${offerItem.typeOfService}</t>
   </si>
@@ -31,9 +27,6 @@
   </si>
   <si>
     <t>${offerItem.feeUnitId}</t>
-  </si>
-  <si>
-    <t>&lt;/jx:forEach&gt;</t>
   </si>
   <si>
     <t>${offerItem.currencyUnit}</t>
@@ -145,10 +138,7 @@
     <t>STT</t>
   </si>
   <si>
-    <t>&lt;jx:forEach items="${offerItems}" var="offerItem" varStatus="status"&gt;</t>
-  </si>
-  <si>
-    <t>${status.index}</t>
+    <t>${offerItem.index}</t>
   </si>
 </sst>
 </file>
@@ -301,17 +291,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -325,6 +309,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,282 +684,264 @@
     <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="3" t="s">
+    <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F2" s="4" t="s">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F3" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F3" s="4" t="s">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F4" s="4" t="s">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+    <row r="22" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+    <row r="23" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="11"/>
+    <row r="25" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/src/main/resources/ExportTemplate/OfferPriceExportTemplate.xlsx
+++ b/src/main/resources/ExportTemplate/OfferPriceExportTemplate.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Java\ael\src\main\resources\ExportTemplate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="2595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14660" windowHeight="2600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="0" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -286,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -315,6 +319,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,42 +674,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="F3" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="F4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="14" t="s">
         <v>23</v>
       </c>
@@ -713,14 +718,14 @@
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
@@ -730,7 +735,7 @@
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -744,7 +749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -758,7 +763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -778,17 +783,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="13" t="s">
@@ -798,9 +803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
@@ -813,7 +816,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
@@ -826,7 +829,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
@@ -839,7 +842,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
@@ -852,7 +855,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
@@ -863,7 +866,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
@@ -874,7 +877,7 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
         <v>28</v>
       </c>
@@ -888,7 +891,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -899,7 +902,7 @@
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -910,7 +913,7 @@
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -921,7 +924,7 @@
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -932,7 +935,7 @@
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>

--- a/src/main/resources/ExportTemplate/OfferPriceExportTemplate.xlsx
+++ b/src/main/resources/ExportTemplate/OfferPriceExportTemplate.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Java\ael\src\main\resources\ExportTemplate\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14660" windowHeight="2600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="2595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,6 +91,21 @@
     <t>Đề  nghị Quý công ty vui  lòng thanh toán  số tiền trên cho công ty  chúng tôi theo thông tin chuyển khoản ngân hàng như sau :</t>
   </si>
   <si>
+    <t>tại Ngân hàng thương mại Á Châu (ACB) , Chi Nhánh Bình Hòa 2, Q. Bình Thạnh, Tp. HCM</t>
+  </si>
+  <si>
+    <t>AEL TRADING &amp; SERVICE CO.,LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCG TRADING VIET NAM CO., LTD</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>${offerItem.index}</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Tên chủ  tài khoản: </t>
     </r>
@@ -106,7 +116,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="163"/>
         <scheme val="minor"/>
       </rPr>
       <t>CÔNG TY TNHH TM &amp; DV AEL</t>
@@ -123,26 +132,10 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="163"/>
         <scheme val="minor"/>
       </rPr>
       <t>103714189</t>
     </r>
-  </si>
-  <si>
-    <t>tại Ngân hàng thương mại Á Châu (ACB) , Chi Nhánh Bình Hòa 2, Q. Bình Thạnh, Tp. HCM</t>
-  </si>
-  <si>
-    <t>AEL TRADING &amp; SERVICE CO.,LTD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SCG TRADING VIET NAM CO., LTD</t>
-  </si>
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>${offerItem.index}</t>
   </si>
 </sst>
 </file>
@@ -152,7 +145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,49 +162,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,25 +180,28 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -292,34 +255,34 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,7 +314,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1228727</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -430,7 +393,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -465,7 +428,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -677,274 +640,237 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22" style="5" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F1" s="2" t="s">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="F2" s="3" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="F3" s="3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="F4" s="3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="14" t="s">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
+      <c r="F23" s="13"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
